--- a/data/trans_camb/P25_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>-10,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,25</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-13,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,43</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>-14,53</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-11,95</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,37</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-8,35</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 9,72</t>
+          <t>-31,47; 12,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 21,9</t>
+          <t>-23,94; 27,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 0,03</t>
+          <t>-29,62; 21,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 26,01</t>
+          <t>-30,48; 9,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 0,7</t>
+          <t>-27,54; 13,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 21,38</t>
+          <t>-33,17; 6,35</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-26,81; 3,33</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-19,56; 13,93</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-23,97; 8,05</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,36%</t>
+          <t>-38,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-32,14%</t>
+          <t>-5,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>-32,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-25,62%</t>
+          <t>-20,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>-36,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-34,75%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-9,79%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-24,28%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,2; 40,05</t>
+          <t>-76,71; 66,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 95,38</t>
+          <t>-59,06; 149,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,28; 0,1</t>
+          <t>-71,91; 104,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 74,85</t>
+          <t>-62,16; 38,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 0,9</t>
+          <t>-56,91; 47,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 69,02</t>
+          <t>-66,33; 22,49</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-63,93; 12,02</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-46,4; 51,97</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-55,53; 28,09</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 4,42</t>
+          <t>-8,57; 9,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 4,14</t>
+          <t>-9,28; 7,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 5,66</t>
+          <t>-9,68; 7,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 8,94</t>
+          <t>-9,64; 6,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 3,14</t>
+          <t>-6,95; 8,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 4,49</t>
+          <t>-4,82; 11,81</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 4,57</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 5,72</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,93; 7,38</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,74%</t>
+          <t>-4,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>-6,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>-11,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>17,07%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-6,9%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-1,48%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,6; 31,72</t>
+          <t>-38,91; 60,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 29,49</t>
+          <t>-39,98; 53,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 40,67</t>
+          <t>-43,17; 51,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 61,39</t>
+          <t>-43,29; 44,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 20,53</t>
+          <t>-32,21; 70,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 29,41</t>
+          <t>-21,94; 89,66</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-31,83; 28,58</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-27,31; 35,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-23,65; 45,5</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>5,75</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 3,6</t>
+          <t>-10,85; 4,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 6,78</t>
+          <t>-8,28; 8,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 2,83</t>
+          <t>-6,59; 9,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,98</t>
+          <t>-5,2; 4,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 1,57</t>
+          <t>-4,95; 4,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,29</t>
+          <t>-0,53; 15,5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 2,73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 4,63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 9,48</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,96%</t>
+          <t>-21,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,9%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>-11,52%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,04%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>96,55%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-17,2%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>39,92%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 36,52</t>
+          <t>-57,34; 51,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,26; 61,11</t>
+          <t>-45,85; 90,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,7; 85,66</t>
+          <t>-38,57; 96,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,41; 119,56</t>
+          <t>-67,69; 124,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 18,51</t>
+          <t>-62,48; 133,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 53,81</t>
+          <t>-18,53; 373,29</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-51,58; 39,62</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-38,04; 64,0</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; 128,52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 1,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 1,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 10,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,89; -0,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-16,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 9,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 25,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 7,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 64,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,62; -0,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 28,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,96</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,91</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-8,9; 3,42</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 6,51</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 7,19</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; 1,83</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; 4,44</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 8,67</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 0,65</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 3,42</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 5,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-15,71%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,39%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-18,39%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-3,78%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-16,91%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-1,54%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-41,71; 23,37</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-26,31; 42,59</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-28,45; 48,98</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-41,28; 14,77</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-33,84; 34,39</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-17,31; 63,07</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-34,7; 4,93</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-22,45; 22,04</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,29; 33,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
